--- a/updated_payroll.xlsx
+++ b/updated_payroll.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Employee ID</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>arshad</t>
-  </si>
-  <si>
-    <t>s</t>
   </si>
 </sst>
 </file>
@@ -607,9 +604,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
